--- a/ReadyForConversion/AutoConverted.Set2/conversion.errors.xlsx
+++ b/ReadyForConversion/AutoConverted.Set2/conversion.errors.xlsx
@@ -1,29 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://itssglobal-my.sharepoint.com/personal/saranyak_itssglobal_com/Documents/Documents/GitHub/APAPLocal/ReadyForConversion/AutoConverted.Set2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://itssglobal-my.sharepoint.com/personal/saranyak_itssglobal_com/Documents/Documents/CLONE/APAPLocal/ReadyForConversion/AutoConverted.Set2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_4496675DC66E751ED0E50AB26E5891E671C753F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="11_4496675DC66E751ED0E50AB26E5891E671C753F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F79A2B8-683E-4BCE-AE13-0DBBACCDE582}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet0!$A$1:$B$426</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$C$1:$C$415</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="706">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1691" uniqueCount="708">
   <si>
     <t>File Name</t>
   </si>
@@ -2141,6 +2143,12 @@
   </si>
   <si>
     <t>#112.7 Invalid number of parameters, passed 3, expected 4. CALL AT.CALC.AVAIL.BALANCE(R.ACCT,WORK.BAL,AVAIL.BAL), expected (Y.ACCT.NO, R.ACCT, WRK.BAL, AVAIL.BAL)</t>
+  </si>
+  <si>
+    <t>LAPAP.UPDATE.FIELD.BCR</t>
+  </si>
+  <si>
+    <t>ADM.BLOQUEA.USUARIO</t>
   </si>
 </sst>
 </file>
@@ -2169,7 +2177,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2177,19 +2185,94 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2499,140 +2582,183 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B426"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:C426"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A410" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A426"/>
+    <sheetView tabSelected="1" zoomScale="51" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B426" sqref="A1:B426"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
-    <col min="2" max="2" width="255" customWidth="1"/>
+    <col min="2" max="2" width="142.90625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C2" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C3" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C4" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C5" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C6" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C7" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C8" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
+      <c r="C9" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C10" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C11" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C12" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
+      <c r="C13" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C14" s="2" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C15" s="2" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>27</v>
       </c>
@@ -2640,7 +2766,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>29</v>
       </c>
@@ -2648,7 +2774,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>31</v>
       </c>
@@ -2656,7 +2782,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>33</v>
       </c>
@@ -2664,7 +2790,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>35</v>
       </c>
@@ -2672,7 +2798,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>37</v>
       </c>
@@ -2680,7 +2806,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>39</v>
       </c>
@@ -2688,15 +2814,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>43</v>
       </c>
@@ -2704,7 +2830,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>43</v>
       </c>
@@ -2712,7 +2838,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>43</v>
       </c>
@@ -2720,7 +2846,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>47</v>
       </c>
@@ -2728,7 +2854,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>49</v>
       </c>
@@ -2736,7 +2862,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>51</v>
       </c>
@@ -2744,7 +2870,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>53</v>
       </c>
@@ -2752,7 +2878,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>55</v>
       </c>
@@ -2760,23 +2886,23 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="2" t="s">
+    <row r="32" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A32" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="2" t="s">
+    <row r="33" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A33" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>60</v>
       </c>
@@ -2784,7 +2910,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>62</v>
       </c>
@@ -2792,7 +2918,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>63</v>
       </c>
@@ -2800,7 +2926,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>65</v>
       </c>
@@ -2808,7 +2934,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>67</v>
       </c>
@@ -2816,7 +2942,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>69</v>
       </c>
@@ -2824,7 +2950,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>71</v>
       </c>
@@ -2832,7 +2958,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>72</v>
       </c>
@@ -2840,7 +2966,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>74</v>
       </c>
@@ -2848,7 +2974,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>76</v>
       </c>
@@ -2856,7 +2982,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>77</v>
       </c>
@@ -2864,7 +2990,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>78</v>
       </c>
@@ -2872,7 +2998,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>80</v>
       </c>
@@ -2880,7 +3006,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>82</v>
       </c>
@@ -2888,7 +3014,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>84</v>
       </c>
@@ -2896,7 +3022,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>86</v>
       </c>
@@ -2904,7 +3030,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>88</v>
       </c>
@@ -2912,7 +3038,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>90</v>
       </c>
@@ -2920,7 +3046,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>91</v>
       </c>
@@ -2928,7 +3054,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>93</v>
       </c>
@@ -2936,7 +3062,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>94</v>
       </c>
@@ -2944,7 +3070,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>96</v>
       </c>
@@ -2952,7 +3078,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>98</v>
       </c>
@@ -2960,7 +3086,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
         <v>100</v>
       </c>
@@ -2968,7 +3094,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
         <v>102</v>
       </c>
@@ -2976,7 +3102,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
         <v>104</v>
       </c>
@@ -2984,7 +3110,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
         <v>106</v>
       </c>
@@ -2992,7 +3118,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
         <v>108</v>
       </c>
@@ -3000,7 +3126,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
         <v>110</v>
       </c>
@@ -3008,7 +3134,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
         <v>112</v>
       </c>
@@ -3016,7 +3142,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
         <v>113</v>
       </c>
@@ -3024,7 +3150,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
         <v>115</v>
       </c>
@@ -3032,7 +3158,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
         <v>116</v>
       </c>
@@ -3040,7 +3166,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
         <v>118</v>
       </c>
@@ -3048,7 +3174,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
         <v>119</v>
       </c>
@@ -3056,7 +3182,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
         <v>121</v>
       </c>
@@ -3064,7 +3190,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
         <v>122</v>
       </c>
@@ -3072,7 +3198,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
         <v>124</v>
       </c>
@@ -3080,7 +3206,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
         <v>125</v>
       </c>
@@ -3088,7 +3214,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
         <v>126</v>
       </c>
@@ -3096,7 +3222,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
         <v>128</v>
       </c>
@@ -3104,7 +3230,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
         <v>129</v>
       </c>
@@ -3112,7 +3238,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
         <v>131</v>
       </c>
@@ -3120,7 +3246,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
         <v>133</v>
       </c>
@@ -3128,7 +3254,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
         <v>135</v>
       </c>
@@ -3136,7 +3262,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
         <v>137</v>
       </c>
@@ -3144,7 +3270,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
         <v>139</v>
       </c>
@@ -3152,7 +3278,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
         <v>141</v>
       </c>
@@ -3160,7 +3286,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
         <v>143</v>
       </c>
@@ -3168,7 +3294,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
         <v>144</v>
       </c>
@@ -3176,7 +3302,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
         <v>146</v>
       </c>
@@ -3184,7 +3310,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
         <v>148</v>
       </c>
@@ -3192,7 +3318,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
         <v>150</v>
       </c>
@@ -3200,7 +3326,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
         <v>152</v>
       </c>
@@ -3208,7 +3334,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
         <v>154</v>
       </c>
@@ -3216,7 +3342,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
         <v>156</v>
       </c>
@@ -3224,7 +3350,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
         <v>157</v>
       </c>
@@ -3232,7 +3358,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
         <v>159</v>
       </c>
@@ -3240,7 +3366,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
         <v>160</v>
       </c>
@@ -3248,7 +3374,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
         <v>162</v>
       </c>
@@ -3256,7 +3382,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
         <v>163</v>
       </c>
@@ -3264,7 +3390,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
         <v>164</v>
       </c>
@@ -3272,7 +3398,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
         <v>166</v>
       </c>
@@ -3280,7 +3406,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
         <v>168</v>
       </c>
@@ -3288,7 +3414,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
         <v>170</v>
       </c>
@@ -3296,7 +3422,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" s="2" t="s">
         <v>172</v>
       </c>
@@ -3304,7 +3430,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
         <v>174</v>
       </c>
@@ -3312,7 +3438,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" s="2" t="s">
         <v>175</v>
       </c>
@@ -3320,7 +3446,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
         <v>176</v>
       </c>
@@ -3328,7 +3454,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" s="2" t="s">
         <v>177</v>
       </c>
@@ -3336,7 +3462,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="s">
         <v>177</v>
       </c>
@@ -3344,7 +3470,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
         <v>180</v>
       </c>
@@ -3352,7 +3478,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" s="2" t="s">
         <v>180</v>
       </c>
@@ -3360,7 +3486,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" s="2" t="s">
         <v>183</v>
       </c>
@@ -3368,7 +3494,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
         <v>183</v>
       </c>
@@ -3376,7 +3502,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" s="2" t="s">
         <v>185</v>
       </c>
@@ -3384,7 +3510,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" s="2" t="s">
         <v>187</v>
       </c>
@@ -3392,7 +3518,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" s="2" t="s">
         <v>189</v>
       </c>
@@ -3400,7 +3526,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" s="2" t="s">
         <v>191</v>
       </c>
@@ -3408,7 +3534,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" s="2" t="s">
         <v>193</v>
       </c>
@@ -3416,7 +3542,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" s="2" t="s">
         <v>195</v>
       </c>
@@ -3424,7 +3550,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" s="2" t="s">
         <v>197</v>
       </c>
@@ -3432,7 +3558,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" s="2" t="s">
         <v>199</v>
       </c>
@@ -3440,7 +3566,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" s="2" t="s">
         <v>201</v>
       </c>
@@ -3448,7 +3574,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" s="2" t="s">
         <v>203</v>
       </c>
@@ -3456,7 +3582,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119" s="2" t="s">
         <v>205</v>
       </c>
@@ -3464,7 +3590,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120" s="2" t="s">
         <v>206</v>
       </c>
@@ -3472,7 +3598,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" s="2" t="s">
         <v>208</v>
       </c>
@@ -3480,7 +3606,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" s="2" t="s">
         <v>209</v>
       </c>
@@ -3488,7 +3614,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123" s="2" t="s">
         <v>211</v>
       </c>
@@ -3496,7 +3622,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124" s="2" t="s">
         <v>212</v>
       </c>
@@ -3504,7 +3630,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
         <v>212</v>
       </c>
@@ -3512,7 +3638,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" s="2" t="s">
         <v>215</v>
       </c>
@@ -3520,7 +3646,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127" s="2" t="s">
         <v>217</v>
       </c>
@@ -3528,7 +3654,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128" s="2" t="s">
         <v>218</v>
       </c>
@@ -3536,7 +3662,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129" s="2" t="s">
         <v>219</v>
       </c>
@@ -3544,7 +3670,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130" s="2" t="s">
         <v>220</v>
       </c>
@@ -3552,7 +3678,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131" s="2" t="s">
         <v>221</v>
       </c>
@@ -3560,7 +3686,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132" s="2" t="s">
         <v>223</v>
       </c>
@@ -3568,7 +3694,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133" s="2" t="s">
         <v>225</v>
       </c>
@@ -3576,7 +3702,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A134" s="2" t="s">
         <v>227</v>
       </c>
@@ -3584,7 +3710,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135" s="2" t="s">
         <v>229</v>
       </c>
@@ -3592,7 +3718,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136" s="2" t="s">
         <v>230</v>
       </c>
@@ -3600,7 +3726,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137" s="2" t="s">
         <v>232</v>
       </c>
@@ -3608,7 +3734,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138" s="2" t="s">
         <v>234</v>
       </c>
@@ -3616,7 +3742,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139" s="2" t="s">
         <v>236</v>
       </c>
@@ -3624,7 +3750,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140" s="2" t="s">
         <v>238</v>
       </c>
@@ -3632,7 +3758,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141" s="2" t="s">
         <v>239</v>
       </c>
@@ -3640,7 +3766,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142" s="2" t="s">
         <v>241</v>
       </c>
@@ -3648,7 +3774,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143" s="2" t="s">
         <v>242</v>
       </c>
@@ -3656,7 +3782,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144" s="2" t="s">
         <v>243</v>
       </c>
@@ -3664,7 +3790,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145" s="2" t="s">
         <v>245</v>
       </c>
@@ -3672,7 +3798,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146" s="2" t="s">
         <v>246</v>
       </c>
@@ -3680,7 +3806,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147" s="2" t="s">
         <v>247</v>
       </c>
@@ -3688,7 +3814,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148" s="2" t="s">
         <v>249</v>
       </c>
@@ -3696,7 +3822,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149" s="2" t="s">
         <v>250</v>
       </c>
@@ -3704,7 +3830,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150" s="2" t="s">
         <v>251</v>
       </c>
@@ -3712,7 +3838,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151" s="2" t="s">
         <v>253</v>
       </c>
@@ -3720,7 +3846,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152" s="2" t="s">
         <v>254</v>
       </c>
@@ -3728,7 +3854,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153" s="2" t="s">
         <v>256</v>
       </c>
@@ -3736,7 +3862,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154" s="2" t="s">
         <v>257</v>
       </c>
@@ -3744,7 +3870,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155" s="2" t="s">
         <v>259</v>
       </c>
@@ -3752,7 +3878,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A156" s="2" t="s">
         <v>261</v>
       </c>
@@ -3760,7 +3886,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157" s="2" t="s">
         <v>262</v>
       </c>
@@ -3768,7 +3894,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A158" s="2" t="s">
         <v>264</v>
       </c>
@@ -3776,7 +3902,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159" s="2" t="s">
         <v>266</v>
       </c>
@@ -3784,7 +3910,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A160" s="2" t="s">
         <v>268</v>
       </c>
@@ -3792,7 +3918,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A161" s="2" t="s">
         <v>269</v>
       </c>
@@ -3800,7 +3926,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A162" s="2" t="s">
         <v>270</v>
       </c>
@@ -3808,7 +3934,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A163" s="2" t="s">
         <v>271</v>
       </c>
@@ -3816,7 +3942,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164" s="2" t="s">
         <v>272</v>
       </c>
@@ -3824,7 +3950,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165" s="2" t="s">
         <v>273</v>
       </c>
@@ -3832,7 +3958,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166" s="2" t="s">
         <v>274</v>
       </c>
@@ -3840,7 +3966,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A167" s="2" t="s">
         <v>276</v>
       </c>
@@ -3848,7 +3974,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A168" s="2" t="s">
         <v>278</v>
       </c>
@@ -3856,7 +3982,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A169" s="2" t="s">
         <v>280</v>
       </c>
@@ -3864,7 +3990,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A170" s="2" t="s">
         <v>281</v>
       </c>
@@ -3872,7 +3998,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A171" s="2" t="s">
         <v>283</v>
       </c>
@@ -3880,7 +4006,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A172" s="2" t="s">
         <v>285</v>
       </c>
@@ -3888,7 +4014,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A173" s="2" t="s">
         <v>286</v>
       </c>
@@ -3896,7 +4022,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A174" s="2" t="s">
         <v>287</v>
       </c>
@@ -3904,7 +4030,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A175" s="2" t="s">
         <v>289</v>
       </c>
@@ -3912,7 +4038,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A176" s="2" t="s">
         <v>291</v>
       </c>
@@ -3920,7 +4046,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A177" s="2" t="s">
         <v>293</v>
       </c>
@@ -3928,7 +4054,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A178" s="2" t="s">
         <v>295</v>
       </c>
@@ -3936,7 +4062,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A179" s="2" t="s">
         <v>297</v>
       </c>
@@ -3944,7 +4070,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A180" s="2" t="s">
         <v>298</v>
       </c>
@@ -3952,7 +4078,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A181" s="2" t="s">
         <v>299</v>
       </c>
@@ -3960,7 +4086,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A182" s="2" t="s">
         <v>300</v>
       </c>
@@ -3968,7 +4094,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A183" s="2" t="s">
         <v>302</v>
       </c>
@@ -3976,7 +4102,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A184" s="2" t="s">
         <v>303</v>
       </c>
@@ -3984,7 +4110,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185" s="2" t="s">
         <v>305</v>
       </c>
@@ -3992,7 +4118,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A186" s="2" t="s">
         <v>306</v>
       </c>
@@ -4000,7 +4126,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A187" s="2" t="s">
         <v>308</v>
       </c>
@@ -4008,7 +4134,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A188" s="2" t="s">
         <v>308</v>
       </c>
@@ -4016,7 +4142,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A189" s="2" t="s">
         <v>308</v>
       </c>
@@ -4024,7 +4150,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A190" s="2" t="s">
         <v>312</v>
       </c>
@@ -4032,7 +4158,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A191" s="2" t="s">
         <v>314</v>
       </c>
@@ -4040,7 +4166,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A192" s="2" t="s">
         <v>316</v>
       </c>
@@ -4048,7 +4174,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A193" s="2" t="s">
         <v>317</v>
       </c>
@@ -4056,7 +4182,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A194" s="2" t="s">
         <v>319</v>
       </c>
@@ -4064,7 +4190,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A195" s="2" t="s">
         <v>320</v>
       </c>
@@ -4072,7 +4198,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A196" s="2" t="s">
         <v>321</v>
       </c>
@@ -4080,7 +4206,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A197" s="2" t="s">
         <v>322</v>
       </c>
@@ -4088,7 +4214,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A198" s="2" t="s">
         <v>324</v>
       </c>
@@ -4096,7 +4222,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A199" s="2" t="s">
         <v>325</v>
       </c>
@@ -4104,7 +4230,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A200" s="2" t="s">
         <v>326</v>
       </c>
@@ -4112,7 +4238,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A201" s="2" t="s">
         <v>328</v>
       </c>
@@ -4120,7 +4246,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A202" s="2" t="s">
         <v>330</v>
       </c>
@@ -4128,7 +4254,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A203" s="2" t="s">
         <v>331</v>
       </c>
@@ -4136,7 +4262,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A204" s="2" t="s">
         <v>332</v>
       </c>
@@ -4144,7 +4270,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A205" s="2" t="s">
         <v>334</v>
       </c>
@@ -4152,7 +4278,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A206" s="2" t="s">
         <v>336</v>
       </c>
@@ -4160,7 +4286,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A207" s="2" t="s">
         <v>338</v>
       </c>
@@ -4168,7 +4294,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A208" s="2" t="s">
         <v>340</v>
       </c>
@@ -4176,7 +4302,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A209" s="2" t="s">
         <v>342</v>
       </c>
@@ -4184,7 +4310,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A210" s="2" t="s">
         <v>344</v>
       </c>
@@ -4192,7 +4318,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A211" s="2" t="s">
         <v>346</v>
       </c>
@@ -4200,7 +4326,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A212" s="2" t="s">
         <v>348</v>
       </c>
@@ -4208,7 +4334,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A213" s="2" t="s">
         <v>350</v>
       </c>
@@ -4216,7 +4342,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A214" s="2" t="s">
         <v>351</v>
       </c>
@@ -4224,7 +4350,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A215" s="2" t="s">
         <v>352</v>
       </c>
@@ -4232,7 +4358,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A216" s="2" t="s">
         <v>352</v>
       </c>
@@ -4240,7 +4366,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A217" s="2" t="s">
         <v>355</v>
       </c>
@@ -4248,7 +4374,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A218" s="2" t="s">
         <v>357</v>
       </c>
@@ -4256,7 +4382,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A219" s="2" t="s">
         <v>358</v>
       </c>
@@ -4264,7 +4390,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A220" s="2" t="s">
         <v>359</v>
       </c>
@@ -4272,7 +4398,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A221" s="2" t="s">
         <v>360</v>
       </c>
@@ -4280,7 +4406,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A222" s="2" t="s">
         <v>362</v>
       </c>
@@ -4288,7 +4414,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A223" s="2" t="s">
         <v>363</v>
       </c>
@@ -4296,7 +4422,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A224" s="2" t="s">
         <v>365</v>
       </c>
@@ -4304,7 +4430,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A225" s="2" t="s">
         <v>367</v>
       </c>
@@ -4312,7 +4438,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A226" s="2" t="s">
         <v>369</v>
       </c>
@@ -4320,7 +4446,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A227" s="2" t="s">
         <v>371</v>
       </c>
@@ -4328,7 +4454,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A228" s="2" t="s">
         <v>373</v>
       </c>
@@ -4336,7 +4462,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A229" s="2" t="s">
         <v>375</v>
       </c>
@@ -4344,7 +4470,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A230" s="2" t="s">
         <v>377</v>
       </c>
@@ -4352,7 +4478,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A231" s="2" t="s">
         <v>379</v>
       </c>
@@ -4360,7 +4486,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A232" s="2" t="s">
         <v>381</v>
       </c>
@@ -4368,7 +4494,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A233" s="2" t="s">
         <v>383</v>
       </c>
@@ -4376,7 +4502,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A234" s="2" t="s">
         <v>385</v>
       </c>
@@ -4384,7 +4510,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A235" s="2" t="s">
         <v>386</v>
       </c>
@@ -4392,7 +4518,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A236" s="2" t="s">
         <v>388</v>
       </c>
@@ -4400,7 +4526,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A237" s="2" t="s">
         <v>389</v>
       </c>
@@ -4408,7 +4534,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A238" s="2" t="s">
         <v>390</v>
       </c>
@@ -4416,7 +4542,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A239" s="2" t="s">
         <v>392</v>
       </c>
@@ -4424,7 +4550,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A240" s="2" t="s">
         <v>394</v>
       </c>
@@ -4432,7 +4558,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A241" s="2" t="s">
         <v>396</v>
       </c>
@@ -4440,7 +4566,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A242" s="2" t="s">
         <v>398</v>
       </c>
@@ -4448,7 +4574,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A243" s="2" t="s">
         <v>400</v>
       </c>
@@ -4456,7 +4582,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A244" s="2" t="s">
         <v>402</v>
       </c>
@@ -4464,7 +4590,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A245" s="2" t="s">
         <v>403</v>
       </c>
@@ -4472,7 +4598,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A246" s="2" t="s">
         <v>405</v>
       </c>
@@ -4480,7 +4606,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A247" s="2" t="s">
         <v>407</v>
       </c>
@@ -4488,7 +4614,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A248" s="2" t="s">
         <v>409</v>
       </c>
@@ -4496,7 +4622,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A249" s="2" t="s">
         <v>411</v>
       </c>
@@ -4504,7 +4630,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A250" s="2" t="s">
         <v>413</v>
       </c>
@@ -4512,7 +4638,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A251" s="2" t="s">
         <v>414</v>
       </c>
@@ -4520,7 +4646,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A252" s="2" t="s">
         <v>416</v>
       </c>
@@ -4528,7 +4654,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A253" s="2" t="s">
         <v>418</v>
       </c>
@@ -4536,7 +4662,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A254" s="2" t="s">
         <v>420</v>
       </c>
@@ -4544,7 +4670,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A255" s="2" t="s">
         <v>422</v>
       </c>
@@ -4552,7 +4678,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A256" s="2" t="s">
         <v>422</v>
       </c>
@@ -4560,7 +4686,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A257" s="2" t="s">
         <v>425</v>
       </c>
@@ -4568,7 +4694,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A258" s="2" t="s">
         <v>425</v>
       </c>
@@ -4576,7 +4702,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A259" s="2" t="s">
         <v>427</v>
       </c>
@@ -4584,7 +4710,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A260" s="2" t="s">
         <v>429</v>
       </c>
@@ -4592,7 +4718,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A261" s="2" t="s">
         <v>431</v>
       </c>
@@ -4600,7 +4726,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A262" s="2" t="s">
         <v>432</v>
       </c>
@@ -4608,7 +4734,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A263" s="2" t="s">
         <v>433</v>
       </c>
@@ -4616,7 +4742,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A264" s="2" t="s">
         <v>434</v>
       </c>
@@ -4624,7 +4750,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A265" s="2" t="s">
         <v>435</v>
       </c>
@@ -4632,7 +4758,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A266" s="2" t="s">
         <v>437</v>
       </c>
@@ -4640,7 +4766,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A267" s="2" t="s">
         <v>439</v>
       </c>
@@ -4648,7 +4774,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A268" s="2" t="s">
         <v>440</v>
       </c>
@@ -4656,7 +4782,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A269" s="2" t="s">
         <v>441</v>
       </c>
@@ -4664,7 +4790,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A270" s="2" t="s">
         <v>443</v>
       </c>
@@ -4672,7 +4798,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A271" s="2" t="s">
         <v>445</v>
       </c>
@@ -4680,7 +4806,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A272" s="2" t="s">
         <v>446</v>
       </c>
@@ -4688,7 +4814,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A273" s="2" t="s">
         <v>448</v>
       </c>
@@ -4696,7 +4822,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A274" s="2" t="s">
         <v>449</v>
       </c>
@@ -4704,7 +4830,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A275" s="2" t="s">
         <v>451</v>
       </c>
@@ -4712,7 +4838,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A276" s="2" t="s">
         <v>453</v>
       </c>
@@ -4720,7 +4846,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A277" s="2" t="s">
         <v>455</v>
       </c>
@@ -4728,7 +4854,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A278" s="2" t="s">
         <v>457</v>
       </c>
@@ -4736,7 +4862,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A279" s="2" t="s">
         <v>458</v>
       </c>
@@ -4744,7 +4870,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A280" s="2" t="s">
         <v>459</v>
       </c>
@@ -4752,7 +4878,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A281" s="2" t="s">
         <v>461</v>
       </c>
@@ -4760,7 +4886,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A282" s="2" t="s">
         <v>463</v>
       </c>
@@ -4768,7 +4894,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A283" s="2" t="s">
         <v>465</v>
       </c>
@@ -4776,7 +4902,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A284" s="2" t="s">
         <v>467</v>
       </c>
@@ -4784,7 +4910,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A285" s="2" t="s">
         <v>469</v>
       </c>
@@ -4792,7 +4918,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A286" s="2" t="s">
         <v>470</v>
       </c>
@@ -4800,7 +4926,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A287" s="2" t="s">
         <v>472</v>
       </c>
@@ -4808,7 +4934,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A288" s="2" t="s">
         <v>474</v>
       </c>
@@ -4816,7 +4942,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A289" s="2" t="s">
         <v>476</v>
       </c>
@@ -4824,7 +4950,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A290" s="2" t="s">
         <v>477</v>
       </c>
@@ -4832,7 +4958,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A291" s="2" t="s">
         <v>479</v>
       </c>
@@ -4840,7 +4966,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A292" s="2" t="s">
         <v>480</v>
       </c>
@@ -4848,7 +4974,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A293" s="2" t="s">
         <v>482</v>
       </c>
@@ -4856,7 +4982,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A294" s="2" t="s">
         <v>483</v>
       </c>
@@ -4864,7 +4990,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A295" s="2" t="s">
         <v>484</v>
       </c>
@@ -4872,7 +4998,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A296" s="2" t="s">
         <v>486</v>
       </c>
@@ -4880,7 +5006,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A297" s="2" t="s">
         <v>487</v>
       </c>
@@ -4888,7 +5014,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A298" s="2" t="s">
         <v>489</v>
       </c>
@@ -4896,7 +5022,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A299" s="2" t="s">
         <v>491</v>
       </c>
@@ -4904,7 +5030,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A300" s="2" t="s">
         <v>493</v>
       </c>
@@ -4912,7 +5038,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A301" s="2" t="s">
         <v>494</v>
       </c>
@@ -4920,7 +5046,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A302" s="2" t="s">
         <v>495</v>
       </c>
@@ -4928,7 +5054,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A303" s="2" t="s">
         <v>497</v>
       </c>
@@ -4936,7 +5062,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A304" s="2" t="s">
         <v>498</v>
       </c>
@@ -4944,7 +5070,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A305" s="2" t="s">
         <v>500</v>
       </c>
@@ -4952,7 +5078,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A306" s="2" t="s">
         <v>501</v>
       </c>
@@ -4960,7 +5086,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A307" s="2" t="s">
         <v>503</v>
       </c>
@@ -4968,7 +5094,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A308" s="2" t="s">
         <v>505</v>
       </c>
@@ -4976,7 +5102,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A309" s="2" t="s">
         <v>507</v>
       </c>
@@ -4984,7 +5110,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A310" s="2" t="s">
         <v>508</v>
       </c>
@@ -4992,7 +5118,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A311" s="2" t="s">
         <v>510</v>
       </c>
@@ -5000,7 +5126,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A312" s="2" t="s">
         <v>512</v>
       </c>
@@ -5008,7 +5134,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A313" s="2" t="s">
         <v>514</v>
       </c>
@@ -5016,7 +5142,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A314" s="2" t="s">
         <v>515</v>
       </c>
@@ -5024,7 +5150,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A315" s="2" t="s">
         <v>516</v>
       </c>
@@ -5032,7 +5158,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A316" s="2" t="s">
         <v>517</v>
       </c>
@@ -5040,7 +5166,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A317" s="2" t="s">
         <v>518</v>
       </c>
@@ -5048,7 +5174,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A318" s="2" t="s">
         <v>519</v>
       </c>
@@ -5056,7 +5182,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A319" s="2" t="s">
         <v>521</v>
       </c>
@@ -5064,7 +5190,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A320" s="2" t="s">
         <v>523</v>
       </c>
@@ -5072,7 +5198,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A321" s="2" t="s">
         <v>525</v>
       </c>
@@ -5080,7 +5206,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A322" s="2" t="s">
         <v>527</v>
       </c>
@@ -5088,7 +5214,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A323" s="2" t="s">
         <v>528</v>
       </c>
@@ -5096,7 +5222,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A324" s="2" t="s">
         <v>529</v>
       </c>
@@ -5104,7 +5230,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A325" s="2" t="s">
         <v>531</v>
       </c>
@@ -5112,7 +5238,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A326" s="2" t="s">
         <v>532</v>
       </c>
@@ -5120,7 +5246,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A327" s="2" t="s">
         <v>534</v>
       </c>
@@ -5128,7 +5254,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A328" s="2" t="s">
         <v>535</v>
       </c>
@@ -5136,7 +5262,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A329" s="2" t="s">
         <v>537</v>
       </c>
@@ -5144,7 +5270,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A330" s="2" t="s">
         <v>539</v>
       </c>
@@ -5152,7 +5278,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A331" s="2" t="s">
         <v>540</v>
       </c>
@@ -5160,7 +5286,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A332" s="2" t="s">
         <v>542</v>
       </c>
@@ -5168,7 +5294,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A333" s="2" t="s">
         <v>543</v>
       </c>
@@ -5176,7 +5302,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A334" s="2" t="s">
         <v>545</v>
       </c>
@@ -5184,7 +5310,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A335" s="2" t="s">
         <v>547</v>
       </c>
@@ -5192,7 +5318,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A336" s="2" t="s">
         <v>549</v>
       </c>
@@ -5200,7 +5326,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A337" s="2" t="s">
         <v>550</v>
       </c>
@@ -5208,7 +5334,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A338" s="2" t="s">
         <v>551</v>
       </c>
@@ -5216,7 +5342,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A339" s="2" t="s">
         <v>553</v>
       </c>
@@ -5224,7 +5350,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A340" s="2" t="s">
         <v>555</v>
       </c>
@@ -5232,7 +5358,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A341" s="2" t="s">
         <v>557</v>
       </c>
@@ -5240,7 +5366,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A342" s="2" t="s">
         <v>559</v>
       </c>
@@ -5248,7 +5374,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A343" s="2" t="s">
         <v>561</v>
       </c>
@@ -5256,7 +5382,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A344" s="2" t="s">
         <v>563</v>
       </c>
@@ -5264,7 +5390,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A345" s="2" t="s">
         <v>564</v>
       </c>
@@ -5272,7 +5398,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A346" s="2" t="s">
         <v>566</v>
       </c>
@@ -5280,7 +5406,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A347" s="2" t="s">
         <v>568</v>
       </c>
@@ -5288,7 +5414,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A348" s="2" t="s">
         <v>570</v>
       </c>
@@ -5296,7 +5422,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A349" s="2" t="s">
         <v>572</v>
       </c>
@@ -5304,7 +5430,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A350" s="2" t="s">
         <v>573</v>
       </c>
@@ -5312,7 +5438,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A351" s="2" t="s">
         <v>575</v>
       </c>
@@ -5320,7 +5446,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A352" s="2" t="s">
         <v>577</v>
       </c>
@@ -5328,7 +5454,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A353" s="2" t="s">
         <v>578</v>
       </c>
@@ -5336,7 +5462,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A354" s="2" t="s">
         <v>580</v>
       </c>
@@ -5344,7 +5470,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A355" s="2" t="s">
         <v>582</v>
       </c>
@@ -5352,7 +5478,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A356" s="2" t="s">
         <v>583</v>
       </c>
@@ -5360,7 +5486,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A357" s="2" t="s">
         <v>585</v>
       </c>
@@ -5368,7 +5494,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A358" s="2" t="s">
         <v>587</v>
       </c>
@@ -5376,7 +5502,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A359" s="2" t="s">
         <v>589</v>
       </c>
@@ -5384,7 +5510,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A360" s="2" t="s">
         <v>591</v>
       </c>
@@ -5392,7 +5518,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A361" s="2" t="s">
         <v>593</v>
       </c>
@@ -5400,7 +5526,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A362" s="2" t="s">
         <v>595</v>
       </c>
@@ -5408,7 +5534,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A363" s="2" t="s">
         <v>597</v>
       </c>
@@ -5416,7 +5542,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A364" s="2" t="s">
         <v>599</v>
       </c>
@@ -5424,7 +5550,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A365" s="2" t="s">
         <v>601</v>
       </c>
@@ -5432,7 +5558,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A366" s="2" t="s">
         <v>603</v>
       </c>
@@ -5440,7 +5566,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A367" s="2" t="s">
         <v>604</v>
       </c>
@@ -5448,7 +5574,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A368" s="2" t="s">
         <v>606</v>
       </c>
@@ -5456,7 +5582,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A369" s="2" t="s">
         <v>608</v>
       </c>
@@ -5464,7 +5590,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A370" s="2" t="s">
         <v>610</v>
       </c>
@@ -5472,7 +5598,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A371" s="2" t="s">
         <v>612</v>
       </c>
@@ -5480,7 +5606,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A372" s="2" t="s">
         <v>614</v>
       </c>
@@ -5488,7 +5614,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A373" s="2" t="s">
         <v>615</v>
       </c>
@@ -5496,7 +5622,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A374" s="2" t="s">
         <v>617</v>
       </c>
@@ -5504,7 +5630,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A375" s="2" t="s">
         <v>619</v>
       </c>
@@ -5512,7 +5638,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A376" s="2" t="s">
         <v>620</v>
       </c>
@@ -5520,7 +5646,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A377" s="2" t="s">
         <v>622</v>
       </c>
@@ -5528,7 +5654,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A378" s="2" t="s">
         <v>624</v>
       </c>
@@ -5536,7 +5662,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A379" s="2" t="s">
         <v>625</v>
       </c>
@@ -5544,7 +5670,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A380" s="2" t="s">
         <v>627</v>
       </c>
@@ -5552,7 +5678,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A381" s="2" t="s">
         <v>629</v>
       </c>
@@ -5560,7 +5686,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A382" s="2" t="s">
         <v>631</v>
       </c>
@@ -5568,7 +5694,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A383" s="2" t="s">
         <v>633</v>
       </c>
@@ -5576,7 +5702,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A384" s="2" t="s">
         <v>635</v>
       </c>
@@ -5584,7 +5710,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A385" s="2" t="s">
         <v>637</v>
       </c>
@@ -5592,7 +5718,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A386" s="2" t="s">
         <v>639</v>
       </c>
@@ -5600,7 +5726,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A387" s="2" t="s">
         <v>641</v>
       </c>
@@ -5608,7 +5734,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A388" s="2" t="s">
         <v>643</v>
       </c>
@@ -5616,7 +5742,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A389" s="2" t="s">
         <v>645</v>
       </c>
@@ -5624,7 +5750,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A390" s="2" t="s">
         <v>647</v>
       </c>
@@ -5632,7 +5758,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A391" s="2" t="s">
         <v>649</v>
       </c>
@@ -5640,7 +5766,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A392" s="2" t="s">
         <v>651</v>
       </c>
@@ -5648,7 +5774,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A393" s="2" t="s">
         <v>652</v>
       </c>
@@ -5656,7 +5782,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A394" s="2" t="s">
         <v>654</v>
       </c>
@@ -5664,7 +5790,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A395" s="2" t="s">
         <v>656</v>
       </c>
@@ -5672,7 +5798,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A396" s="2" t="s">
         <v>657</v>
       </c>
@@ -5680,7 +5806,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A397" s="2" t="s">
         <v>658</v>
       </c>
@@ -5688,7 +5814,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A398" s="2" t="s">
         <v>660</v>
       </c>
@@ -5696,7 +5822,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A399" s="2" t="s">
         <v>661</v>
       </c>
@@ -5704,23 +5830,23 @@
         <v>662</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A400" s="2" t="s">
+    <row r="400" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+      <c r="A400" s="4" t="s">
         <v>663</v>
       </c>
-      <c r="B400" s="2" t="s">
+      <c r="B400" s="6" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A401" s="2" t="s">
+    <row r="401" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+      <c r="A401" s="4" t="s">
         <v>665</v>
       </c>
-      <c r="B401" s="2" t="s">
+      <c r="B401" s="6" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A402" s="2" t="s">
         <v>667</v>
       </c>
@@ -5728,23 +5854,23 @@
         <v>668</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A403" s="2" t="s">
+    <row r="403" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A403" s="4" t="s">
         <v>669</v>
       </c>
-      <c r="B403" s="2" t="s">
+      <c r="B403" s="6" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A404" s="2" t="s">
+    <row r="404" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A404" s="4" t="s">
         <v>671</v>
       </c>
-      <c r="B404" s="2" t="s">
+      <c r="B404" s="6" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A405" s="2" t="s">
         <v>673</v>
       </c>
@@ -5752,7 +5878,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A406" s="2" t="s">
         <v>675</v>
       </c>
@@ -5760,7 +5886,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A407" s="2" t="s">
         <v>676</v>
       </c>
@@ -5768,7 +5894,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A408" s="2" t="s">
         <v>677</v>
       </c>
@@ -5776,7 +5902,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A409" s="2" t="s">
         <v>678</v>
       </c>
@@ -5784,7 +5910,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A410" s="2" t="s">
         <v>679</v>
       </c>
@@ -5792,7 +5918,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A411" s="2" t="s">
         <v>680</v>
       </c>
@@ -5800,7 +5926,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A412" s="2" t="s">
         <v>681</v>
       </c>
@@ -5808,7 +5934,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A413" s="2" t="s">
         <v>682</v>
       </c>
@@ -5816,7 +5942,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A414" s="2" t="s">
         <v>684</v>
       </c>
@@ -5824,7 +5950,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A415" s="2" t="s">
         <v>685</v>
       </c>
@@ -5832,7 +5958,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A416" s="2" t="s">
         <v>686</v>
       </c>
@@ -5840,7 +5966,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A417" s="2" t="s">
         <v>687</v>
       </c>
@@ -5848,7 +5974,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A418" s="2" t="s">
         <v>689</v>
       </c>
@@ -5856,7 +5982,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A419" s="2" t="s">
         <v>691</v>
       </c>
@@ -5864,7 +5990,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A420" s="2" t="s">
         <v>693</v>
       </c>
@@ -5872,7 +5998,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A421" s="2" t="s">
         <v>695</v>
       </c>
@@ -5880,7 +6006,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A422" s="2" t="s">
         <v>697</v>
       </c>
@@ -5888,41 +6014,3407 @@
         <v>683</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A423" s="2" t="s">
+    <row r="423" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A423" s="4" t="s">
         <v>698</v>
       </c>
-      <c r="B423" s="2" t="s">
+      <c r="B423" s="6" t="s">
         <v>699</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A424" s="2" t="s">
+      <c r="A424" s="4" t="s">
         <v>700</v>
       </c>
-      <c r="B424" s="2" t="s">
+      <c r="B424" s="6" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A425" s="2" t="s">
+    <row r="425" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A425" s="4" t="s">
         <v>702</v>
       </c>
-      <c r="B425" s="2" t="s">
+      <c r="B425" s="6" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A426" s="2" t="s">
+    <row r="426" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A426" s="4" t="s">
         <v>704</v>
       </c>
-      <c r="B426" s="2" t="s">
+      <c r="B426" s="6" t="s">
         <v>705</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B426" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" ref="A1:B426" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <x14:filter val="#105.13 Invalid number of parameters, passed 3, expected 4. CALL AT.CALC.AVAIL.BALANCE(R.ACCT,WORK.BAL,AVAIL.BAL), expected (Y.ACCT.NO, R.ACCT, WRK.BAL, AVAIL.BAL)"/>
+            <x14:filter val="#112.7 Invalid number of parameters, passed 3, expected 4. CALL AT.CALC.AVAIL.BALANCE(R.ACCT,WORK.BAL,AVAIL.BAL), expected (Y.ACCT.NO, R.ACCT, WRK.BAL, AVAIL.BAL)"/>
+            <x14:filter val="#113.3 Invalid number of parameters, passed 18, expected 19. CALL AA.BUILD.PAYMENT.SCHEDULE.SCHEDULES(SCHEDULE.INFO,END.DATE,'', '1', PAYMENT.DATES, PAYMENT.TYPES, PAYMENT.METHODS, PAYMENT.AMOUNTS, PAYMENT.PROPERTIES, PAYMENT.PROPERTIES.AMT, TAX.DETAILS, OS.AMT, FINAL.PRINCIPAL.POS, PAYMENT.PERCENTAGES, PAYMENT.MIN.AMOUNTS, PAYMENT.DEFER.DATES, PAYMENT.BILL.TYPES, RET.ERR), expected (SCHEDULE.INFO, REQD.END.DATE, NO.CYCLES, ADJUST.FINAL.AMOUNT, PAYMENT.DATES, PAYMENT.TYPES, PAYMENT.METHODS, PAYMENT.AMOUNTS, PAYMENT.PROPERTIES, PAYMENT.PROPERTIES.AMT, TAX.DETAILS, OUTSTANDING.AMOUNT, FINAL.PRINCIPAL.POS, PAYMENT.PERCENTAGES, PAYMENT.MIN.AMOUNTS, PAYMENT.DEFER.DATES, PAYMENT.BILL.TYPES, CHARGE.CALC.INFO, RET.ERROR)"/>
+            <x14:filter val="#119.3 Invalid number of parameters, passed 5, expected 6. CALL F.READU(FN.REDO.L.NCF.STOCK,STOCK.ID,R.REDO.L.NCF.STOCK,F.REDO.L.NCF.STOCK,ERR), expected (FILEID, V$KEY, REC, F.FILEID, ER, RETRY)"/>
+            <x14:filter val="#125.9 Invalid number of parameters, passed 4, expected 3. CALL AT.ISO.FMT.BAL.RTN(R.ACCT,Y.WORK.BAL,Y.AVAIL.BAL,BALANCE.FORMATTED), expected (Y.ACCT.NO, R.ACCT, BALANCE.FORMATTED)"/>
+            <x14:filter val="#128.3 Invalid number of parameters, passed 18, expected 19. CALL AA.BUILD.PAYMENT.SCHEDULE.SCHEDULES(SCHEDULE.INFO,END.DATE,'', '1', PAYMENT.DATES, PAYMENT.TYPES, PAYMENT.METHODS, PAYMENT.AMOUNTS, PAYMENT.PROPERTIES, PAYMENT.PROPERTIES.AMT, TAX.DETAILS, OS.AMT, FINAL.PRINCIPAL.POS, PAYMENT.PERCENTAGES, PAYMENT.MIN.AMOUNTS, PAYMENT.DEFER.DATES, PAYMENT.BILL.TYPES, RET.ERR), expected (SCHEDULE.INFO, REQD.END.DATE, NO.CYCLES, ADJUST.FINAL.AMOUNT, PAYMENT.DATES, PAYMENT.TYPES, PAYMENT.METHODS, PAYMENT.AMOUNTS, PAYMENT.PROPERTIES, PAYMENT.PROPERTIES.AMT, TAX.DETAILS, OUTSTANDING.AMOUNT, FINAL.PRINCIPAL.POS, PAYMENT.PERCENTAGES, PAYMENT.MIN.AMOUNTS, PAYMENT.DEFER.DATES, PAYMENT.BILL.TYPES, CHARGE.CALC.INFO, RET.ERROR)"/>
+            <x14:filter val="#153.3 Invalid number of parameters, passed 11, expected 12. CALL AA.CALCULATE.TIER.AMOUNT(TIER.GROUP.TYPE, TIER.TYPE, CALC.TYPE, CALC.VALUE, TIER.MAX.AMOUNT, TIER.MIN.AMOUNT, TIER.AMOUNT, ARR.BASE.AMOUNT, CHARGE.AMOUNT, CHARGE.CALC.DETAILS, RET.ERROR), expected (TIER.GROUP, TIER.TYPE, CALC.TYPE, CALC.VALUE, MAX.AMOUNT, MIN.AMOUNT, TIER.AMOUNT, BASE.AMOUNT, TIER.BASE.AMOUNT, CHARGE.AMOUNT, CHARGE.CALC.DETAILS, RET.ERROR)"/>
+            <x14:filter val="#178.3 Invalid number of parameters, passed 11, expected 12. CALL AA.CALCULATE.TIER.AMOUNT(TIER.GROUP.TYPE, TIER.TYPE, CALC.TYPE, CALC.VALUE, TIER.MAX.AMOUNT, TIER.MIN.AMOUNT, TIER.AMOUNT, ARR.BASE.AMOUNT, CHARGE.AMOUNT, CHARGE.CALC.DETAILS, RET.ERROR), expected (TIER.GROUP, TIER.TYPE, CALC.TYPE, CALC.VALUE, MAX.AMOUNT, MIN.AMOUNT, TIER.AMOUNT, BASE.AMOUNT, TIER.BASE.AMOUNT, CHARGE.AMOUNT, CHARGE.CALC.DETAILS, RET.ERROR)"/>
+            <x14:filter val="#193.1 Invalid number of parameters, passed 18, expected 19. CALL AA.BUILD.PAYMENT.SCHEDULE.SCHEDULES(SCHEDULE.INFO, REQD.END.DATE, NO.CYCLES, ADJUST.FINAL.AMOUNT, PAYMENT.DATES, PAYMENT.TYPES, PAYMENT.METHODS, PAYMENT.AMOUNTS, PAYMENT.PROPERTIES, PAYMENT.PROPERTIES.AMT, TAX.DETAILS, OUTSTANDING.AMOUNT, FINAL.PRINCIPAL.POS, PAYMENT.PERCENTAGES, PAYMENT.MIN.AMOUNTS, PAYMENT.DEFER.DATES, PAYMENT.BILL.TYPES, RET.ERROR), expected (SCHEDULE.INFO, REQD.END.DATE, NO.CYCLES, ADJUST.FINAL.AMOUNT, PAYMENT.DATES, PAYMENT.TYPES, PAYMENT.METHODS, PAYMENT.AMOUNTS, PAYMENT.PROPERTIES, PAYMENT.PROPERTIES.AMT, TAX.DETAILS, OUTSTANDING.AMOUNT, FINAL.PRINCIPAL.POS, PAYMENT.PERCENTAGES, PAYMENT.MIN.AMOUNTS, PAYMENT.DEFER.DATES, PAYMENT.BILL.TYPES, CHARGE.CALC.INFO, RET.ERROR)"/>
+            <x14:filter val="#52.5 Invalid number of parameters, passed 4, expected 3. CALL AT.ISO.FMT.BAL.RTN(R.ACCT,WRK.BAL,AVAIL.BAL,ACCT.BAL), expected (Y.ACCT.NO, R.ACCT, BALANCE.FORMATTED)"/>
+            <x14:filter val="#60.5 Invalid number of parameters, passed 3, expected 4. CALL AT.CALC.AVAIL.BALANCE(R.ACCT,WRK.BAL,AVAIL.BAL), expected (Y.ACCT.NO, R.ACCT, WRK.BAL, AVAIL.BAL)"/>
+            <x14:filter val="#67.7 Invalid number of parameters, passed 1, expected 0. CALL @VAL.RTN, expected ()"/>
+            <x14:filter val="#99.5 Invalid number of parameters, passed 3, expected 4. CALL AT.CALC.AVAIL.BALANCE(R.ACCT,BAL.AFT.TXN,AVAIL.BAL), expected (Y.ACCT.NO, R.ACCT, WRK.BAL, AVAIL.BAL)"/>
+          </mc:Choice>
+          <mc:Fallback>
+            <filter val="#105.13 Invalid number of parameters, passed 3, expected 4. CALL AT.CALC.AVAIL.BALANCE(R.ACCT,WORK.BAL,AVAIL.BAL), expected (Y.ACCT.NO, R.ACCT, WRK.BAL, AVAIL.BAL)"/>
+            <filter val="#112.7 Invalid number of parameters, passed 3, expected 4. CALL AT.CALC.AVAIL.BALANCE(R.ACCT,WORK.BAL,AVAIL.BAL), expected (Y.ACCT.NO, R.ACCT, WRK.BAL, AVAIL.BAL)"/>
+            <filter val="#119.3 Invalid number of parameters, passed 5, expected 6. CALL F.READU(FN.REDO.L.NCF.STOCK,STOCK.ID,R.REDO.L.NCF.STOCK,F.REDO.L.NCF.STOCK,ERR), expected (FILEID, V$KEY, REC, F.FILEID, ER, RETRY)"/>
+            <filter val="#125.9 Invalid number of parameters, passed 4, expected 3. CALL AT.ISO.FMT.BAL.RTN(R.ACCT,Y.WORK.BAL,Y.AVAIL.BAL,BALANCE.FORMATTED), expected (Y.ACCT.NO, R.ACCT, BALANCE.FORMATTED)"/>
+            <filter val="#52.5 Invalid number of parameters, passed 4, expected 3. CALL AT.ISO.FMT.BAL.RTN(R.ACCT,WRK.BAL,AVAIL.BAL,ACCT.BAL), expected (Y.ACCT.NO, R.ACCT, BALANCE.FORMATTED)"/>
+            <filter val="#60.5 Invalid number of parameters, passed 3, expected 4. CALL AT.CALC.AVAIL.BALANCE(R.ACCT,WRK.BAL,AVAIL.BAL), expected (Y.ACCT.NO, R.ACCT, WRK.BAL, AVAIL.BAL)"/>
+            <filter val="#67.7 Invalid number of parameters, passed 1, expected 0. CALL @VAL.RTN, expected ()"/>
+            <filter val="#99.5 Invalid number of parameters, passed 3, expected 4. CALL AT.CALC.AVAIL.BALANCE(R.ACCT,BAL.AFT.TXN,AVAIL.BAL), expected (Y.ACCT.NO, R.ACCT, WRK.BAL, AVAIL.BAL)"/>
+          </mc:Fallback>
+        </mc:AlternateContent>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="C2:C15">
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C15 A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA3E2B81-BF91-47F0-9F55-ECA5AB7BCAB9}">
+  <dimension ref="A1:E415"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="37.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A75" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A77" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A79" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A82" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A83" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A84" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A85" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A86" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A87" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A88" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A89" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A90" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A91" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A92" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A93" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A94" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A95" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A96" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A97" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A98" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A99" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A100" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A101" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A102" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A103" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A104" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A105" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A106" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A107" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A108" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A109" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A110" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A111" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A112" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A113" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A114" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A115" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A116" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A117" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A118" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A119" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A120" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A121" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A122" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A123" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A124" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A125" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A126" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A127" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A128" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A129" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A130" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A131" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A132" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A133" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A134" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A135" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A136" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A137" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A138" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A139" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A140" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A141" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A142" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A143" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A144" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A145" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A146" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A147" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A148" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A149" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A150" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A151" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A152" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A153" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A154" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A155" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A156" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A157" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A158" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A159" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A160" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A161" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A162" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A163" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A164" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A165" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A166" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A167" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A168" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A169" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A170" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A171" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A172" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A173" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A174" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A175" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A176" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A177" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A178" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A179" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A180" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A181" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A182" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A183" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A184" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A185" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A186" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A187" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A188" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A189" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A190" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A191" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A192" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A193" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A194" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A195" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A196" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A197" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A198" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A199" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A200" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A201" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A202" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A203" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A204" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A205" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A206" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A207" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A208" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A209" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A210" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A211" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A212" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A213" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A214" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A215" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A216" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A217" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A218" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A219" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A220" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A221" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A222" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A223" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A224" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A225" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A226" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A227" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A228" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A229" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A230" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A231" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A232" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A233" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A234" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A235" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A236" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A237" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A238" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A239" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A240" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A241" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A242" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A243" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A244" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A245" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A246" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A247" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A248" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A249" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A250" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A251" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A252" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A253" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A254" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A255" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A256" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A257" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="C257" s="2" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A258" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A259" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A260" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A261" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="C261" s="2" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A262" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A263" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="C263" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A264" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="C264" s="2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A265" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A266" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A267" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A268" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="C268" s="2" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A269" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A270" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="C270" s="2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A271" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A272" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A273" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A274" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A275" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="C275" s="2" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A276" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="C276" s="2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A277" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A278" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="C278" s="2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A279" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="C279" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A280" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="C280" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A281" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="C281" s="2" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A282" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="C282" s="2" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A283" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="C283" s="2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A284" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A285" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="C285" s="2" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A286" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A287" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="C287" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A288" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C288" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A289" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="C289" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A290" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="C290" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A291" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="C291" s="2" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A292" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="C292" s="2" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A293" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="C293" s="2" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A294" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="C294" s="2" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A295" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="C295" s="2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A296" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="C296" s="2" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A297" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="C297" s="2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A298" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="C298" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A299" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="C299" s="2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A300" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="C300" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A301" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="C301" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A302" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="C302" s="2" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A303" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="C303" s="2" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A304" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="C304" s="2" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A305" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="C305" s="2" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A306" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="C306" s="2" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A307" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="C307" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A308" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="C308" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A309" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="C309" s="2" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A310" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="C310" s="2" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A311" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="C311" s="2" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A312" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="C312" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A313" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="C313" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A314" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="C314" s="2" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A315" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="C315" s="2" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A316" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="C316" s="2" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A317" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="C317" s="2" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A318" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C318" s="2" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A319" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="C319" s="2" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A320" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C320" s="2" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A321" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="C321" s="2" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A322" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="C322" s="2" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A323" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="C323" s="2" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A324" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="C324" s="2" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A325" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="C325" s="2" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A326" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="C326" s="2" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A327" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C327" s="2" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A328" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="C328" s="2" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A329" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="C329" s="2" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A330" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="C330" s="2" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A331" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="C331" s="2" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A332" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="C332" s="2" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A333" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="C333" s="2" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A334" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="C334" s="2" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A335" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="C335" s="2" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A336" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="C336" s="2" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A337" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="C337" s="2" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A338" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="C338" s="2" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A339" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="C339" s="2" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A340" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="C340" s="2" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A341" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="C341" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A342" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="C342" s="2" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A343" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="C343" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A344" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="C344" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A345" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="C345" s="2" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A346" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="C346" s="2" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A347" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="C347" s="2" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A348" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="C348" s="2" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A349" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="C349" s="2" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A350" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="C350" s="2" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A351" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="C351" s="2" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A352" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="C352" s="2" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A353" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="C353" s="2" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A354" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="C354" s="2" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A355" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="C355" s="2" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A356" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="C356" s="2" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A357" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="C357" s="2" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A358" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="C358" s="2" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A359" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="C359" s="2" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A360" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="C360" s="2" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A361" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="C361" s="2" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A362" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="C362" s="2" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A363" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="C363" s="2" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A364" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="C364" s="2" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A365" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="C365" s="2" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A366" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="C366" s="2" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A367" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="C367" s="2" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A368" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="C368" s="2" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A369" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="C369" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A370" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="C370" s="2" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A371" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="C371" s="2" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A372" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="C372" s="2" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A373" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="C373" s="2" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A374" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="C374" s="2" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A375" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="C375" s="2" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A376" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="C376" s="2" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A377" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="C377" s="2" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A378" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="C378" s="2" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A379" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="C379" s="2" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A380" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="C380" s="2" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A381" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="C381" s="2" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A382" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="C382" s="2" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A383" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="C383" s="2" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A384" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="C384" s="2" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A385" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="C385" s="2" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A386" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="C386" s="2" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A387" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="C387" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A388" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="C388" s="2" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A389" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="C389" s="2" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A390" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="C390" s="2" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A391" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="C391" s="2" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A392" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="C392" s="2" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A393" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="C393" s="2" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A394" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="C394" s="2" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A395" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="C395" s="2" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A396" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="C396" s="2" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A397" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="C397" s="2" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A398" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="C398" s="2" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A399" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="C399" s="2" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A400" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="C400" s="2" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="401" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C401" s="2" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="402" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C402" s="2" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="403" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C403" s="2" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="404" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C404" s="2" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="405" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C405" s="2" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="406" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C406" s="2" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="407" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C407" s="2" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="408" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C408" s="2" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="409" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C409" s="2" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="410" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C410" s="2" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="411" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C411" s="2" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="412" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C412" s="2" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="413" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C413" s="2" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="414" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C414" s="2" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="415" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C415" s="2" t="s">
+        <v>704</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="C1:C415" xr:uid="{CA3E2B81-BF91-47F0-9F55-ECA5AB7BCAB9}"/>
+  <conditionalFormatting sqref="C1:C415 A1:A1048576 C427:C1048576">
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>